--- a/GUI/patient_data_upload.xlsx
+++ b/GUI/patient_data_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickschneider/Desktop/CAoCM/CAoCM_Vital/GUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09FDE5B-796B-D74C-8A40-8FA35922FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13EC3A-257E-A845-8575-A8B2973BB630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="31000" windowWidth="28040" windowHeight="17440" xr2:uid="{AEFC3ED1-AA3E-234E-8DFF-04CFA30E52DA}"/>
+    <workbookView xWindow="17440" yWindow="5080" windowWidth="28040" windowHeight="17440" xr2:uid="{AEFC3ED1-AA3E-234E-8DFF-04CFA30E52DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>male</t>
+    <t>breast</t>
   </si>
   <si>
-    <t>breast</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>70.4</t>
   </si>
 </sst>
 </file>
@@ -423,25 +426,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>180</v>
-      </c>
-      <c r="D1">
-        <v>80</v>
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
